--- a/JournalTravail/Journal_Travail_Muaremi.xlsx
+++ b/JournalTravail/Journal_Travail_Muaremi.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Rédaction du modèle de Gant sous Excel, ainsi que des répartitions des heures</t>
   </si>
   <si>
-    <t>03.03.2018 -</t>
-  </si>
-  <si>
     <t>Mise à jour des répartitions des heures</t>
   </si>
   <si>
@@ -84,15 +81,9 @@
     <t>Réunion : Définir les tâches à réaliser des vacances</t>
   </si>
   <si>
-    <t>vacances</t>
-  </si>
-  <si>
     <t>Réunion choix de proposition projet</t>
   </si>
   <si>
-    <t>Début du projet</t>
-  </si>
-  <si>
     <t>Réunion avancement après vacances</t>
   </si>
   <si>
@@ -111,9 +102,6 @@
     <t>Implémentation de la base de données</t>
   </si>
   <si>
-    <t>Ajout de méthodes sur la base de données. call java -&gt; procedure MySQL</t>
-  </si>
-  <si>
     <t>Création des classes pour la communication Java - MySQL</t>
   </si>
   <si>
@@ -129,10 +117,19 @@
     <t>Réunion du petit groupe : Restructuration du projet</t>
   </si>
   <si>
-    <t>ascencion</t>
-  </si>
-  <si>
-    <t>Lundi de truc</t>
+    <t>Projet</t>
+  </si>
+  <si>
+    <t>Call Java sur les méthodes de la base de données</t>
+  </si>
+  <si>
+    <t>Ajout de méthodes sur la base de données.</t>
+  </si>
+  <si>
+    <t>Correction de bug java sur les Call des méthodes SQL</t>
+  </si>
+  <si>
+    <t>Correction de bug sur les méthodes SQL et Java</t>
   </si>
 </sst>
 </file>
@@ -142,7 +139,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,7 +179,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -243,9 +246,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -258,9 +258,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -276,23 +273,29 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,438 +605,416 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="8.85546875" style="3"/>
     <col min="2" max="2" width="52.5703125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="10"/>
-    <col min="4" max="5" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="4"/>
+    <col min="3" max="3" width="8.85546875" style="8"/>
+    <col min="4" max="5" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="14"/>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="B2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C4" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43153</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="B5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43154</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43160</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43162</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43165</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43167</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="12">
+      <c r="B10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43167</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43174</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="12">
-        <v>2</v>
-      </c>
-      <c r="D12" s="19">
-        <v>43174</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="10">
+        <v>2</v>
+      </c>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43176</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="12">
+      <c r="B13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="10">
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43179</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43183</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43186</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43189</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43193</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="12">
-        <v>2</v>
-      </c>
-      <c r="D18" s="19">
-        <v>43192</v>
-      </c>
-      <c r="E18" s="19">
-        <v>43198</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="B18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43197</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43200</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="4" t="s">
+      <c r="C20" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43204</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43205</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43208</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43209</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43215</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43223</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43228</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43233</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43235</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="10">
+        <v>4</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43238</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>43200</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="12"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>43208</v>
-      </c>
-      <c r="B24" s="18" t="s">
+      <c r="C30" s="10">
         <v>6</v>
       </c>
-      <c r="C24" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>43209</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="12">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>43223</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="12"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="12"/>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>43228</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="12">
-        <v>2</v>
-      </c>
-      <c r="D30" s="19">
-        <v>43230</v>
-      </c>
-      <c r="E30" s="19">
-        <v>43231</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43233</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="12"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43239</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43235</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19">
-        <v>43241</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>37</v>
+        <v>43240</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="10">
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>43238</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="12">
-        <v>6</v>
+        <v>43241</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>43241</v>
-      </c>
-      <c r="B34" s="18" t="s">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="12">
-        <v>2</v>
+      <c r="B34" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="10">
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="12"/>
+      <c r="A35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="10">
+        <v>8</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="12"/>
+      <c r="A36" s="1">
+        <v>43244</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="12"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="12"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="12"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="12"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="12"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="12"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="12"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="12"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>43244</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="17" t="s">
+      <c r="B37" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="13">
-        <f>SUM(C5:C45)</f>
-        <v>45</v>
+      <c r="C37" s="11">
+        <f>SUM(C5:C36)</f>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/JournalTravail/Journal_Travail_Muaremi.xlsx
+++ b/JournalTravail/Journal_Travail_Muaremi.xlsx
@@ -45,48 +45,18 @@
     <t>Préparation de la présentation et présentation</t>
   </si>
   <si>
-    <t>Réunion de groupe afin de définir les tâches à faire durant la période de l'ascension</t>
-  </si>
-  <si>
     <t>Dejvid Muaremi</t>
   </si>
   <si>
     <t>Réunion de groupe</t>
   </si>
   <si>
-    <t>Changement de modèle de Gant</t>
-  </si>
-  <si>
-    <t>Rédaction du modèle de Gant sous Excel, ainsi que des répartitions des heures</t>
-  </si>
-  <si>
     <t>Mise à jour des répartitions des heures</t>
   </si>
   <si>
-    <t>Introduction du module. Constitution du groupe avec nomination d'un chef de groupe et de son remplaçant.</t>
-  </si>
-  <si>
-    <t>Feedback des propositions. Discussion pour compléter le projet choisi : DARYLL</t>
-  </si>
-  <si>
-    <t>Réunion : Refaire la planification initiale</t>
-  </si>
-  <si>
     <t>Finalisation et rendu</t>
   </si>
   <si>
-    <t>Réunion : Discuter des fonctionnalités du projet</t>
-  </si>
-  <si>
-    <t>Réunion : Définir les tâches à réaliser des vacances</t>
-  </si>
-  <si>
-    <t>Réunion choix de proposition projet</t>
-  </si>
-  <si>
-    <t>Réunion avancement après vacances</t>
-  </si>
-  <si>
     <t>Réunion durant les vacances</t>
   </si>
   <si>
@@ -102,9 +72,6 @@
     <t>Implémentation de la base de données</t>
   </si>
   <si>
-    <t>Création des classes pour la communication Java - MySQL</t>
-  </si>
-  <si>
     <t>Réunion de groupe afin de définir les dernières tâches</t>
   </si>
   <si>
@@ -114,9 +81,6 @@
     <t>Rédaction de la documentation utilisateur</t>
   </si>
   <si>
-    <t>Réunion du petit groupe : Restructuration du projet</t>
-  </si>
-  <si>
     <t>Projet</t>
   </si>
   <si>
@@ -126,10 +90,46 @@
     <t>Ajout de méthodes sur la base de données.</t>
   </si>
   <si>
-    <t>Correction de bug java sur les Call des méthodes SQL</t>
-  </si>
-  <si>
     <t>Correction de bug sur les méthodes SQL et Java</t>
+  </si>
+  <si>
+    <t>Changement de modèle de Gantt</t>
+  </si>
+  <si>
+    <t>Correction de bug Java sur les calls des méthodes SQL</t>
+  </si>
+  <si>
+    <t>Introduction du module. Constitution du groupe avec nomination d’un chef de groupe et de son remplaçant.</t>
+  </si>
+  <si>
+    <t>Réunion de groupe afin de définir les tâches à faire durant la période de l’ascension</t>
+  </si>
+  <si>
+    <t>Création des classes pour la communication Java — MySQL</t>
+  </si>
+  <si>
+    <t>Rédaction du modèle de Gantt sous Excel, ainsi que des répartitions des heures</t>
+  </si>
+  <si>
+    <t>Réunion: choix de proposition projet</t>
+  </si>
+  <si>
+    <t>Feedback des propositions. Discussion pour compléter le projet choisi: DARYLL</t>
+  </si>
+  <si>
+    <t>Réunion: Discuter des fonctionnalités du projet</t>
+  </si>
+  <si>
+    <t>Réunion: Refaire la planification initiale</t>
+  </si>
+  <si>
+    <t>Réunion: Définir les tâches à réaliser des vacances</t>
+  </si>
+  <si>
+    <t>Réunion: avancement après vacances</t>
+  </si>
+  <si>
+    <t>Réunion du petit groupe: Restructuration du projet</t>
   </si>
 </sst>
 </file>
@@ -608,7 +608,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +629,7 @@
     </row>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="19"/>
     </row>
@@ -652,7 +652,7 @@
         <v>43153</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C5" s="10">
         <v>3</v>
@@ -663,7 +663,7 @@
         <v>43154</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C6" s="10">
         <v>2</v>
@@ -674,7 +674,7 @@
         <v>43160</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C7" s="10">
         <v>2</v>
@@ -685,7 +685,7 @@
         <v>43162</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C8" s="10">
         <v>2</v>
@@ -696,7 +696,7 @@
         <v>43165</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C9" s="10">
         <v>2</v>
@@ -707,7 +707,7 @@
         <v>43167</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" s="10">
         <v>1</v>
@@ -718,7 +718,7 @@
         <v>43167</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C11" s="10">
         <v>2</v>
@@ -741,7 +741,7 @@
         <v>43176</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C13" s="10">
         <v>2.5</v>
@@ -752,7 +752,7 @@
         <v>43179</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C14" s="10">
         <v>2</v>
@@ -763,7 +763,7 @@
         <v>43183</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C15" s="10">
         <v>8</v>
@@ -774,7 +774,7 @@
         <v>43186</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C16" s="10">
         <v>2</v>
@@ -785,7 +785,7 @@
         <v>43189</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C17" s="10">
         <v>4</v>
@@ -796,7 +796,7 @@
         <v>43193</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C18" s="10">
         <v>2</v>
@@ -809,7 +809,7 @@
         <v>43197</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="10">
         <v>6</v>
@@ -820,7 +820,7 @@
         <v>43200</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C20" s="10">
         <v>2</v>
@@ -831,7 +831,7 @@
         <v>43204</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C21" s="10">
         <v>4</v>
@@ -842,7 +842,7 @@
         <v>43205</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C22" s="10">
         <v>3</v>
@@ -875,7 +875,7 @@
         <v>43215</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C25" s="10">
         <v>2</v>
@@ -886,7 +886,7 @@
         <v>43223</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="10">
         <v>2</v>
@@ -897,7 +897,7 @@
         <v>43228</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C27" s="10">
         <v>2</v>
@@ -908,7 +908,7 @@
         <v>43233</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C28" s="10">
         <v>2</v>
@@ -919,7 +919,7 @@
         <v>43235</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C29" s="10">
         <v>4</v>
@@ -932,7 +932,7 @@
         <v>43238</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C30" s="10">
         <v>6</v>
@@ -943,7 +943,7 @@
         <v>43239</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C31" s="10">
         <v>2</v>
@@ -954,7 +954,7 @@
         <v>43240</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C32" s="10">
         <v>6</v>
@@ -965,7 +965,7 @@
         <v>43241</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C33" s="10">
         <v>2</v>
@@ -973,10 +973,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C34" s="10">
         <v>10</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C35" s="10">
         <v>8</v>
@@ -998,7 +998,7 @@
         <v>43244</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C36" s="10">
         <v>2</v>

--- a/JournalTravail/Journal_Travail_Muaremi.xlsx
+++ b/JournalTravail/Journal_Travail_Muaremi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
@@ -431,19 +431,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="52.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="8.85"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.7244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="51.969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -458,9 +458,2054 @@
         <v>1</v>
       </c>
       <c r="B2" s="7"/>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
+      <c r="N2" s="0"/>
+      <c r="O2" s="0"/>
+      <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
+      <c r="T2" s="0"/>
+      <c r="U2" s="0"/>
+      <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="0"/>
+      <c r="AF2" s="0"/>
+      <c r="AG2" s="0"/>
+      <c r="AH2" s="0"/>
+      <c r="AI2" s="0"/>
+      <c r="AJ2" s="0"/>
+      <c r="AK2" s="0"/>
+      <c r="AL2" s="0"/>
+      <c r="AM2" s="0"/>
+      <c r="AN2" s="0"/>
+      <c r="AO2" s="0"/>
+      <c r="AP2" s="0"/>
+      <c r="AQ2" s="0"/>
+      <c r="AR2" s="0"/>
+      <c r="AS2" s="0"/>
+      <c r="AT2" s="0"/>
+      <c r="AU2" s="0"/>
+      <c r="AV2" s="0"/>
+      <c r="AW2" s="0"/>
+      <c r="AX2" s="0"/>
+      <c r="AY2" s="0"/>
+      <c r="AZ2" s="0"/>
+      <c r="BA2" s="0"/>
+      <c r="BB2" s="0"/>
+      <c r="BC2" s="0"/>
+      <c r="BD2" s="0"/>
+      <c r="BE2" s="0"/>
+      <c r="BF2" s="0"/>
+      <c r="BG2" s="0"/>
+      <c r="BH2" s="0"/>
+      <c r="BI2" s="0"/>
+      <c r="BJ2" s="0"/>
+      <c r="BK2" s="0"/>
+      <c r="BL2" s="0"/>
+      <c r="BM2" s="0"/>
+      <c r="BN2" s="0"/>
+      <c r="BO2" s="0"/>
+      <c r="BP2" s="0"/>
+      <c r="BQ2" s="0"/>
+      <c r="BR2" s="0"/>
+      <c r="BS2" s="0"/>
+      <c r="BT2" s="0"/>
+      <c r="BU2" s="0"/>
+      <c r="BV2" s="0"/>
+      <c r="BW2" s="0"/>
+      <c r="BX2" s="0"/>
+      <c r="BY2" s="0"/>
+      <c r="BZ2" s="0"/>
+      <c r="CA2" s="0"/>
+      <c r="CB2" s="0"/>
+      <c r="CC2" s="0"/>
+      <c r="CD2" s="0"/>
+      <c r="CE2" s="0"/>
+      <c r="CF2" s="0"/>
+      <c r="CG2" s="0"/>
+      <c r="CH2" s="0"/>
+      <c r="CI2" s="0"/>
+      <c r="CJ2" s="0"/>
+      <c r="CK2" s="0"/>
+      <c r="CL2" s="0"/>
+      <c r="CM2" s="0"/>
+      <c r="CN2" s="0"/>
+      <c r="CO2" s="0"/>
+      <c r="CP2" s="0"/>
+      <c r="CQ2" s="0"/>
+      <c r="CR2" s="0"/>
+      <c r="CS2" s="0"/>
+      <c r="CT2" s="0"/>
+      <c r="CU2" s="0"/>
+      <c r="CV2" s="0"/>
+      <c r="CW2" s="0"/>
+      <c r="CX2" s="0"/>
+      <c r="CY2" s="0"/>
+      <c r="CZ2" s="0"/>
+      <c r="DA2" s="0"/>
+      <c r="DB2" s="0"/>
+      <c r="DC2" s="0"/>
+      <c r="DD2" s="0"/>
+      <c r="DE2" s="0"/>
+      <c r="DF2" s="0"/>
+      <c r="DG2" s="0"/>
+      <c r="DH2" s="0"/>
+      <c r="DI2" s="0"/>
+      <c r="DJ2" s="0"/>
+      <c r="DK2" s="0"/>
+      <c r="DL2" s="0"/>
+      <c r="DM2" s="0"/>
+      <c r="DN2" s="0"/>
+      <c r="DO2" s="0"/>
+      <c r="DP2" s="0"/>
+      <c r="DQ2" s="0"/>
+      <c r="DR2" s="0"/>
+      <c r="DS2" s="0"/>
+      <c r="DT2" s="0"/>
+      <c r="DU2" s="0"/>
+      <c r="DV2" s="0"/>
+      <c r="DW2" s="0"/>
+      <c r="DX2" s="0"/>
+      <c r="DY2" s="0"/>
+      <c r="DZ2" s="0"/>
+      <c r="EA2" s="0"/>
+      <c r="EB2" s="0"/>
+      <c r="EC2" s="0"/>
+      <c r="ED2" s="0"/>
+      <c r="EE2" s="0"/>
+      <c r="EF2" s="0"/>
+      <c r="EG2" s="0"/>
+      <c r="EH2" s="0"/>
+      <c r="EI2" s="0"/>
+      <c r="EJ2" s="0"/>
+      <c r="EK2" s="0"/>
+      <c r="EL2" s="0"/>
+      <c r="EM2" s="0"/>
+      <c r="EN2" s="0"/>
+      <c r="EO2" s="0"/>
+      <c r="EP2" s="0"/>
+      <c r="EQ2" s="0"/>
+      <c r="ER2" s="0"/>
+      <c r="ES2" s="0"/>
+      <c r="ET2" s="0"/>
+      <c r="EU2" s="0"/>
+      <c r="EV2" s="0"/>
+      <c r="EW2" s="0"/>
+      <c r="EX2" s="0"/>
+      <c r="EY2" s="0"/>
+      <c r="EZ2" s="0"/>
+      <c r="FA2" s="0"/>
+      <c r="FB2" s="0"/>
+      <c r="FC2" s="0"/>
+      <c r="FD2" s="0"/>
+      <c r="FE2" s="0"/>
+      <c r="FF2" s="0"/>
+      <c r="FG2" s="0"/>
+      <c r="FH2" s="0"/>
+      <c r="FI2" s="0"/>
+      <c r="FJ2" s="0"/>
+      <c r="FK2" s="0"/>
+      <c r="FL2" s="0"/>
+      <c r="FM2" s="0"/>
+      <c r="FN2" s="0"/>
+      <c r="FO2" s="0"/>
+      <c r="FP2" s="0"/>
+      <c r="FQ2" s="0"/>
+      <c r="FR2" s="0"/>
+      <c r="FS2" s="0"/>
+      <c r="FT2" s="0"/>
+      <c r="FU2" s="0"/>
+      <c r="FV2" s="0"/>
+      <c r="FW2" s="0"/>
+      <c r="FX2" s="0"/>
+      <c r="FY2" s="0"/>
+      <c r="FZ2" s="0"/>
+      <c r="GA2" s="0"/>
+      <c r="GB2" s="0"/>
+      <c r="GC2" s="0"/>
+      <c r="GD2" s="0"/>
+      <c r="GE2" s="0"/>
+      <c r="GF2" s="0"/>
+      <c r="GG2" s="0"/>
+      <c r="GH2" s="0"/>
+      <c r="GI2" s="0"/>
+      <c r="GJ2" s="0"/>
+      <c r="GK2" s="0"/>
+      <c r="GL2" s="0"/>
+      <c r="GM2" s="0"/>
+      <c r="GN2" s="0"/>
+      <c r="GO2" s="0"/>
+      <c r="GP2" s="0"/>
+      <c r="GQ2" s="0"/>
+      <c r="GR2" s="0"/>
+      <c r="GS2" s="0"/>
+      <c r="GT2" s="0"/>
+      <c r="GU2" s="0"/>
+      <c r="GV2" s="0"/>
+      <c r="GW2" s="0"/>
+      <c r="GX2" s="0"/>
+      <c r="GY2" s="0"/>
+      <c r="GZ2" s="0"/>
+      <c r="HA2" s="0"/>
+      <c r="HB2" s="0"/>
+      <c r="HC2" s="0"/>
+      <c r="HD2" s="0"/>
+      <c r="HE2" s="0"/>
+      <c r="HF2" s="0"/>
+      <c r="HG2" s="0"/>
+      <c r="HH2" s="0"/>
+      <c r="HI2" s="0"/>
+      <c r="HJ2" s="0"/>
+      <c r="HK2" s="0"/>
+      <c r="HL2" s="0"/>
+      <c r="HM2" s="0"/>
+      <c r="HN2" s="0"/>
+      <c r="HO2" s="0"/>
+      <c r="HP2" s="0"/>
+      <c r="HQ2" s="0"/>
+      <c r="HR2" s="0"/>
+      <c r="HS2" s="0"/>
+      <c r="HT2" s="0"/>
+      <c r="HU2" s="0"/>
+      <c r="HV2" s="0"/>
+      <c r="HW2" s="0"/>
+      <c r="HX2" s="0"/>
+      <c r="HY2" s="0"/>
+      <c r="HZ2" s="0"/>
+      <c r="IA2" s="0"/>
+      <c r="IB2" s="0"/>
+      <c r="IC2" s="0"/>
+      <c r="ID2" s="0"/>
+      <c r="IE2" s="0"/>
+      <c r="IF2" s="0"/>
+      <c r="IG2" s="0"/>
+      <c r="IH2" s="0"/>
+      <c r="II2" s="0"/>
+      <c r="IJ2" s="0"/>
+      <c r="IK2" s="0"/>
+      <c r="IL2" s="0"/>
+      <c r="IM2" s="0"/>
+      <c r="IN2" s="0"/>
+      <c r="IO2" s="0"/>
+      <c r="IP2" s="0"/>
+      <c r="IQ2" s="0"/>
+      <c r="IR2" s="0"/>
+      <c r="IS2" s="0"/>
+      <c r="IT2" s="0"/>
+      <c r="IU2" s="0"/>
+      <c r="IV2" s="0"/>
+      <c r="IW2" s="0"/>
+      <c r="IX2" s="0"/>
+      <c r="IY2" s="0"/>
+      <c r="IZ2" s="0"/>
+      <c r="JA2" s="0"/>
+      <c r="JB2" s="0"/>
+      <c r="JC2" s="0"/>
+      <c r="JD2" s="0"/>
+      <c r="JE2" s="0"/>
+      <c r="JF2" s="0"/>
+      <c r="JG2" s="0"/>
+      <c r="JH2" s="0"/>
+      <c r="JI2" s="0"/>
+      <c r="JJ2" s="0"/>
+      <c r="JK2" s="0"/>
+      <c r="JL2" s="0"/>
+      <c r="JM2" s="0"/>
+      <c r="JN2" s="0"/>
+      <c r="JO2" s="0"/>
+      <c r="JP2" s="0"/>
+      <c r="JQ2" s="0"/>
+      <c r="JR2" s="0"/>
+      <c r="JS2" s="0"/>
+      <c r="JT2" s="0"/>
+      <c r="JU2" s="0"/>
+      <c r="JV2" s="0"/>
+      <c r="JW2" s="0"/>
+      <c r="JX2" s="0"/>
+      <c r="JY2" s="0"/>
+      <c r="JZ2" s="0"/>
+      <c r="KA2" s="0"/>
+      <c r="KB2" s="0"/>
+      <c r="KC2" s="0"/>
+      <c r="KD2" s="0"/>
+      <c r="KE2" s="0"/>
+      <c r="KF2" s="0"/>
+      <c r="KG2" s="0"/>
+      <c r="KH2" s="0"/>
+      <c r="KI2" s="0"/>
+      <c r="KJ2" s="0"/>
+      <c r="KK2" s="0"/>
+      <c r="KL2" s="0"/>
+      <c r="KM2" s="0"/>
+      <c r="KN2" s="0"/>
+      <c r="KO2" s="0"/>
+      <c r="KP2" s="0"/>
+      <c r="KQ2" s="0"/>
+      <c r="KR2" s="0"/>
+      <c r="KS2" s="0"/>
+      <c r="KT2" s="0"/>
+      <c r="KU2" s="0"/>
+      <c r="KV2" s="0"/>
+      <c r="KW2" s="0"/>
+      <c r="KX2" s="0"/>
+      <c r="KY2" s="0"/>
+      <c r="KZ2" s="0"/>
+      <c r="LA2" s="0"/>
+      <c r="LB2" s="0"/>
+      <c r="LC2" s="0"/>
+      <c r="LD2" s="0"/>
+      <c r="LE2" s="0"/>
+      <c r="LF2" s="0"/>
+      <c r="LG2" s="0"/>
+      <c r="LH2" s="0"/>
+      <c r="LI2" s="0"/>
+      <c r="LJ2" s="0"/>
+      <c r="LK2" s="0"/>
+      <c r="LL2" s="0"/>
+      <c r="LM2" s="0"/>
+      <c r="LN2" s="0"/>
+      <c r="LO2" s="0"/>
+      <c r="LP2" s="0"/>
+      <c r="LQ2" s="0"/>
+      <c r="LR2" s="0"/>
+      <c r="LS2" s="0"/>
+      <c r="LT2" s="0"/>
+      <c r="LU2" s="0"/>
+      <c r="LV2" s="0"/>
+      <c r="LW2" s="0"/>
+      <c r="LX2" s="0"/>
+      <c r="LY2" s="0"/>
+      <c r="LZ2" s="0"/>
+      <c r="MA2" s="0"/>
+      <c r="MB2" s="0"/>
+      <c r="MC2" s="0"/>
+      <c r="MD2" s="0"/>
+      <c r="ME2" s="0"/>
+      <c r="MF2" s="0"/>
+      <c r="MG2" s="0"/>
+      <c r="MH2" s="0"/>
+      <c r="MI2" s="0"/>
+      <c r="MJ2" s="0"/>
+      <c r="MK2" s="0"/>
+      <c r="ML2" s="0"/>
+      <c r="MM2" s="0"/>
+      <c r="MN2" s="0"/>
+      <c r="MO2" s="0"/>
+      <c r="MP2" s="0"/>
+      <c r="MQ2" s="0"/>
+      <c r="MR2" s="0"/>
+      <c r="MS2" s="0"/>
+      <c r="MT2" s="0"/>
+      <c r="MU2" s="0"/>
+      <c r="MV2" s="0"/>
+      <c r="MW2" s="0"/>
+      <c r="MX2" s="0"/>
+      <c r="MY2" s="0"/>
+      <c r="MZ2" s="0"/>
+      <c r="NA2" s="0"/>
+      <c r="NB2" s="0"/>
+      <c r="NC2" s="0"/>
+      <c r="ND2" s="0"/>
+      <c r="NE2" s="0"/>
+      <c r="NF2" s="0"/>
+      <c r="NG2" s="0"/>
+      <c r="NH2" s="0"/>
+      <c r="NI2" s="0"/>
+      <c r="NJ2" s="0"/>
+      <c r="NK2" s="0"/>
+      <c r="NL2" s="0"/>
+      <c r="NM2" s="0"/>
+      <c r="NN2" s="0"/>
+      <c r="NO2" s="0"/>
+      <c r="NP2" s="0"/>
+      <c r="NQ2" s="0"/>
+      <c r="NR2" s="0"/>
+      <c r="NS2" s="0"/>
+      <c r="NT2" s="0"/>
+      <c r="NU2" s="0"/>
+      <c r="NV2" s="0"/>
+      <c r="NW2" s="0"/>
+      <c r="NX2" s="0"/>
+      <c r="NY2" s="0"/>
+      <c r="NZ2" s="0"/>
+      <c r="OA2" s="0"/>
+      <c r="OB2" s="0"/>
+      <c r="OC2" s="0"/>
+      <c r="OD2" s="0"/>
+      <c r="OE2" s="0"/>
+      <c r="OF2" s="0"/>
+      <c r="OG2" s="0"/>
+      <c r="OH2" s="0"/>
+      <c r="OI2" s="0"/>
+      <c r="OJ2" s="0"/>
+      <c r="OK2" s="0"/>
+      <c r="OL2" s="0"/>
+      <c r="OM2" s="0"/>
+      <c r="ON2" s="0"/>
+      <c r="OO2" s="0"/>
+      <c r="OP2" s="0"/>
+      <c r="OQ2" s="0"/>
+      <c r="OR2" s="0"/>
+      <c r="OS2" s="0"/>
+      <c r="OT2" s="0"/>
+      <c r="OU2" s="0"/>
+      <c r="OV2" s="0"/>
+      <c r="OW2" s="0"/>
+      <c r="OX2" s="0"/>
+      <c r="OY2" s="0"/>
+      <c r="OZ2" s="0"/>
+      <c r="PA2" s="0"/>
+      <c r="PB2" s="0"/>
+      <c r="PC2" s="0"/>
+      <c r="PD2" s="0"/>
+      <c r="PE2" s="0"/>
+      <c r="PF2" s="0"/>
+      <c r="PG2" s="0"/>
+      <c r="PH2" s="0"/>
+      <c r="PI2" s="0"/>
+      <c r="PJ2" s="0"/>
+      <c r="PK2" s="0"/>
+      <c r="PL2" s="0"/>
+      <c r="PM2" s="0"/>
+      <c r="PN2" s="0"/>
+      <c r="PO2" s="0"/>
+      <c r="PP2" s="0"/>
+      <c r="PQ2" s="0"/>
+      <c r="PR2" s="0"/>
+      <c r="PS2" s="0"/>
+      <c r="PT2" s="0"/>
+      <c r="PU2" s="0"/>
+      <c r="PV2" s="0"/>
+      <c r="PW2" s="0"/>
+      <c r="PX2" s="0"/>
+      <c r="PY2" s="0"/>
+      <c r="PZ2" s="0"/>
+      <c r="QA2" s="0"/>
+      <c r="QB2" s="0"/>
+      <c r="QC2" s="0"/>
+      <c r="QD2" s="0"/>
+      <c r="QE2" s="0"/>
+      <c r="QF2" s="0"/>
+      <c r="QG2" s="0"/>
+      <c r="QH2" s="0"/>
+      <c r="QI2" s="0"/>
+      <c r="QJ2" s="0"/>
+      <c r="QK2" s="0"/>
+      <c r="QL2" s="0"/>
+      <c r="QM2" s="0"/>
+      <c r="QN2" s="0"/>
+      <c r="QO2" s="0"/>
+      <c r="QP2" s="0"/>
+      <c r="QQ2" s="0"/>
+      <c r="QR2" s="0"/>
+      <c r="QS2" s="0"/>
+      <c r="QT2" s="0"/>
+      <c r="QU2" s="0"/>
+      <c r="QV2" s="0"/>
+      <c r="QW2" s="0"/>
+      <c r="QX2" s="0"/>
+      <c r="QY2" s="0"/>
+      <c r="QZ2" s="0"/>
+      <c r="RA2" s="0"/>
+      <c r="RB2" s="0"/>
+      <c r="RC2" s="0"/>
+      <c r="RD2" s="0"/>
+      <c r="RE2" s="0"/>
+      <c r="RF2" s="0"/>
+      <c r="RG2" s="0"/>
+      <c r="RH2" s="0"/>
+      <c r="RI2" s="0"/>
+      <c r="RJ2" s="0"/>
+      <c r="RK2" s="0"/>
+      <c r="RL2" s="0"/>
+      <c r="RM2" s="0"/>
+      <c r="RN2" s="0"/>
+      <c r="RO2" s="0"/>
+      <c r="RP2" s="0"/>
+      <c r="RQ2" s="0"/>
+      <c r="RR2" s="0"/>
+      <c r="RS2" s="0"/>
+      <c r="RT2" s="0"/>
+      <c r="RU2" s="0"/>
+      <c r="RV2" s="0"/>
+      <c r="RW2" s="0"/>
+      <c r="RX2" s="0"/>
+      <c r="RY2" s="0"/>
+      <c r="RZ2" s="0"/>
+      <c r="SA2" s="0"/>
+      <c r="SB2" s="0"/>
+      <c r="SC2" s="0"/>
+      <c r="SD2" s="0"/>
+      <c r="SE2" s="0"/>
+      <c r="SF2" s="0"/>
+      <c r="SG2" s="0"/>
+      <c r="SH2" s="0"/>
+      <c r="SI2" s="0"/>
+      <c r="SJ2" s="0"/>
+      <c r="SK2" s="0"/>
+      <c r="SL2" s="0"/>
+      <c r="SM2" s="0"/>
+      <c r="SN2" s="0"/>
+      <c r="SO2" s="0"/>
+      <c r="SP2" s="0"/>
+      <c r="SQ2" s="0"/>
+      <c r="SR2" s="0"/>
+      <c r="SS2" s="0"/>
+      <c r="ST2" s="0"/>
+      <c r="SU2" s="0"/>
+      <c r="SV2" s="0"/>
+      <c r="SW2" s="0"/>
+      <c r="SX2" s="0"/>
+      <c r="SY2" s="0"/>
+      <c r="SZ2" s="0"/>
+      <c r="TA2" s="0"/>
+      <c r="TB2" s="0"/>
+      <c r="TC2" s="0"/>
+      <c r="TD2" s="0"/>
+      <c r="TE2" s="0"/>
+      <c r="TF2" s="0"/>
+      <c r="TG2" s="0"/>
+      <c r="TH2" s="0"/>
+      <c r="TI2" s="0"/>
+      <c r="TJ2" s="0"/>
+      <c r="TK2" s="0"/>
+      <c r="TL2" s="0"/>
+      <c r="TM2" s="0"/>
+      <c r="TN2" s="0"/>
+      <c r="TO2" s="0"/>
+      <c r="TP2" s="0"/>
+      <c r="TQ2" s="0"/>
+      <c r="TR2" s="0"/>
+      <c r="TS2" s="0"/>
+      <c r="TT2" s="0"/>
+      <c r="TU2" s="0"/>
+      <c r="TV2" s="0"/>
+      <c r="TW2" s="0"/>
+      <c r="TX2" s="0"/>
+      <c r="TY2" s="0"/>
+      <c r="TZ2" s="0"/>
+      <c r="UA2" s="0"/>
+      <c r="UB2" s="0"/>
+      <c r="UC2" s="0"/>
+      <c r="UD2" s="0"/>
+      <c r="UE2" s="0"/>
+      <c r="UF2" s="0"/>
+      <c r="UG2" s="0"/>
+      <c r="UH2" s="0"/>
+      <c r="UI2" s="0"/>
+      <c r="UJ2" s="0"/>
+      <c r="UK2" s="0"/>
+      <c r="UL2" s="0"/>
+      <c r="UM2" s="0"/>
+      <c r="UN2" s="0"/>
+      <c r="UO2" s="0"/>
+      <c r="UP2" s="0"/>
+      <c r="UQ2" s="0"/>
+      <c r="UR2" s="0"/>
+      <c r="US2" s="0"/>
+      <c r="UT2" s="0"/>
+      <c r="UU2" s="0"/>
+      <c r="UV2" s="0"/>
+      <c r="UW2" s="0"/>
+      <c r="UX2" s="0"/>
+      <c r="UY2" s="0"/>
+      <c r="UZ2" s="0"/>
+      <c r="VA2" s="0"/>
+      <c r="VB2" s="0"/>
+      <c r="VC2" s="0"/>
+      <c r="VD2" s="0"/>
+      <c r="VE2" s="0"/>
+      <c r="VF2" s="0"/>
+      <c r="VG2" s="0"/>
+      <c r="VH2" s="0"/>
+      <c r="VI2" s="0"/>
+      <c r="VJ2" s="0"/>
+      <c r="VK2" s="0"/>
+      <c r="VL2" s="0"/>
+      <c r="VM2" s="0"/>
+      <c r="VN2" s="0"/>
+      <c r="VO2" s="0"/>
+      <c r="VP2" s="0"/>
+      <c r="VQ2" s="0"/>
+      <c r="VR2" s="0"/>
+      <c r="VS2" s="0"/>
+      <c r="VT2" s="0"/>
+      <c r="VU2" s="0"/>
+      <c r="VV2" s="0"/>
+      <c r="VW2" s="0"/>
+      <c r="VX2" s="0"/>
+      <c r="VY2" s="0"/>
+      <c r="VZ2" s="0"/>
+      <c r="WA2" s="0"/>
+      <c r="WB2" s="0"/>
+      <c r="WC2" s="0"/>
+      <c r="WD2" s="0"/>
+      <c r="WE2" s="0"/>
+      <c r="WF2" s="0"/>
+      <c r="WG2" s="0"/>
+      <c r="WH2" s="0"/>
+      <c r="WI2" s="0"/>
+      <c r="WJ2" s="0"/>
+      <c r="WK2" s="0"/>
+      <c r="WL2" s="0"/>
+      <c r="WM2" s="0"/>
+      <c r="WN2" s="0"/>
+      <c r="WO2" s="0"/>
+      <c r="WP2" s="0"/>
+      <c r="WQ2" s="0"/>
+      <c r="WR2" s="0"/>
+      <c r="WS2" s="0"/>
+      <c r="WT2" s="0"/>
+      <c r="WU2" s="0"/>
+      <c r="WV2" s="0"/>
+      <c r="WW2" s="0"/>
+      <c r="WX2" s="0"/>
+      <c r="WY2" s="0"/>
+      <c r="WZ2" s="0"/>
+      <c r="XA2" s="0"/>
+      <c r="XB2" s="0"/>
+      <c r="XC2" s="0"/>
+      <c r="XD2" s="0"/>
+      <c r="XE2" s="0"/>
+      <c r="XF2" s="0"/>
+      <c r="XG2" s="0"/>
+      <c r="XH2" s="0"/>
+      <c r="XI2" s="0"/>
+      <c r="XJ2" s="0"/>
+      <c r="XK2" s="0"/>
+      <c r="XL2" s="0"/>
+      <c r="XM2" s="0"/>
+      <c r="XN2" s="0"/>
+      <c r="XO2" s="0"/>
+      <c r="XP2" s="0"/>
+      <c r="XQ2" s="0"/>
+      <c r="XR2" s="0"/>
+      <c r="XS2" s="0"/>
+      <c r="XT2" s="0"/>
+      <c r="XU2" s="0"/>
+      <c r="XV2" s="0"/>
+      <c r="XW2" s="0"/>
+      <c r="XX2" s="0"/>
+      <c r="XY2" s="0"/>
+      <c r="XZ2" s="0"/>
+      <c r="YA2" s="0"/>
+      <c r="YB2" s="0"/>
+      <c r="YC2" s="0"/>
+      <c r="YD2" s="0"/>
+      <c r="YE2" s="0"/>
+      <c r="YF2" s="0"/>
+      <c r="YG2" s="0"/>
+      <c r="YH2" s="0"/>
+      <c r="YI2" s="0"/>
+      <c r="YJ2" s="0"/>
+      <c r="YK2" s="0"/>
+      <c r="YL2" s="0"/>
+      <c r="YM2" s="0"/>
+      <c r="YN2" s="0"/>
+      <c r="YO2" s="0"/>
+      <c r="YP2" s="0"/>
+      <c r="YQ2" s="0"/>
+      <c r="YR2" s="0"/>
+      <c r="YS2" s="0"/>
+      <c r="YT2" s="0"/>
+      <c r="YU2" s="0"/>
+      <c r="YV2" s="0"/>
+      <c r="YW2" s="0"/>
+      <c r="YX2" s="0"/>
+      <c r="YY2" s="0"/>
+      <c r="YZ2" s="0"/>
+      <c r="ZA2" s="0"/>
+      <c r="ZB2" s="0"/>
+      <c r="ZC2" s="0"/>
+      <c r="ZD2" s="0"/>
+      <c r="ZE2" s="0"/>
+      <c r="ZF2" s="0"/>
+      <c r="ZG2" s="0"/>
+      <c r="ZH2" s="0"/>
+      <c r="ZI2" s="0"/>
+      <c r="ZJ2" s="0"/>
+      <c r="ZK2" s="0"/>
+      <c r="ZL2" s="0"/>
+      <c r="ZM2" s="0"/>
+      <c r="ZN2" s="0"/>
+      <c r="ZO2" s="0"/>
+      <c r="ZP2" s="0"/>
+      <c r="ZQ2" s="0"/>
+      <c r="ZR2" s="0"/>
+      <c r="ZS2" s="0"/>
+      <c r="ZT2" s="0"/>
+      <c r="ZU2" s="0"/>
+      <c r="ZV2" s="0"/>
+      <c r="ZW2" s="0"/>
+      <c r="ZX2" s="0"/>
+      <c r="ZY2" s="0"/>
+      <c r="ZZ2" s="0"/>
+      <c r="AAA2" s="0"/>
+      <c r="AAB2" s="0"/>
+      <c r="AAC2" s="0"/>
+      <c r="AAD2" s="0"/>
+      <c r="AAE2" s="0"/>
+      <c r="AAF2" s="0"/>
+      <c r="AAG2" s="0"/>
+      <c r="AAH2" s="0"/>
+      <c r="AAI2" s="0"/>
+      <c r="AAJ2" s="0"/>
+      <c r="AAK2" s="0"/>
+      <c r="AAL2" s="0"/>
+      <c r="AAM2" s="0"/>
+      <c r="AAN2" s="0"/>
+      <c r="AAO2" s="0"/>
+      <c r="AAP2" s="0"/>
+      <c r="AAQ2" s="0"/>
+      <c r="AAR2" s="0"/>
+      <c r="AAS2" s="0"/>
+      <c r="AAT2" s="0"/>
+      <c r="AAU2" s="0"/>
+      <c r="AAV2" s="0"/>
+      <c r="AAW2" s="0"/>
+      <c r="AAX2" s="0"/>
+      <c r="AAY2" s="0"/>
+      <c r="AAZ2" s="0"/>
+      <c r="ABA2" s="0"/>
+      <c r="ABB2" s="0"/>
+      <c r="ABC2" s="0"/>
+      <c r="ABD2" s="0"/>
+      <c r="ABE2" s="0"/>
+      <c r="ABF2" s="0"/>
+      <c r="ABG2" s="0"/>
+      <c r="ABH2" s="0"/>
+      <c r="ABI2" s="0"/>
+      <c r="ABJ2" s="0"/>
+      <c r="ABK2" s="0"/>
+      <c r="ABL2" s="0"/>
+      <c r="ABM2" s="0"/>
+      <c r="ABN2" s="0"/>
+      <c r="ABO2" s="0"/>
+      <c r="ABP2" s="0"/>
+      <c r="ABQ2" s="0"/>
+      <c r="ABR2" s="0"/>
+      <c r="ABS2" s="0"/>
+      <c r="ABT2" s="0"/>
+      <c r="ABU2" s="0"/>
+      <c r="ABV2" s="0"/>
+      <c r="ABW2" s="0"/>
+      <c r="ABX2" s="0"/>
+      <c r="ABY2" s="0"/>
+      <c r="ABZ2" s="0"/>
+      <c r="ACA2" s="0"/>
+      <c r="ACB2" s="0"/>
+      <c r="ACC2" s="0"/>
+      <c r="ACD2" s="0"/>
+      <c r="ACE2" s="0"/>
+      <c r="ACF2" s="0"/>
+      <c r="ACG2" s="0"/>
+      <c r="ACH2" s="0"/>
+      <c r="ACI2" s="0"/>
+      <c r="ACJ2" s="0"/>
+      <c r="ACK2" s="0"/>
+      <c r="ACL2" s="0"/>
+      <c r="ACM2" s="0"/>
+      <c r="ACN2" s="0"/>
+      <c r="ACO2" s="0"/>
+      <c r="ACP2" s="0"/>
+      <c r="ACQ2" s="0"/>
+      <c r="ACR2" s="0"/>
+      <c r="ACS2" s="0"/>
+      <c r="ACT2" s="0"/>
+      <c r="ACU2" s="0"/>
+      <c r="ACV2" s="0"/>
+      <c r="ACW2" s="0"/>
+      <c r="ACX2" s="0"/>
+      <c r="ACY2" s="0"/>
+      <c r="ACZ2" s="0"/>
+      <c r="ADA2" s="0"/>
+      <c r="ADB2" s="0"/>
+      <c r="ADC2" s="0"/>
+      <c r="ADD2" s="0"/>
+      <c r="ADE2" s="0"/>
+      <c r="ADF2" s="0"/>
+      <c r="ADG2" s="0"/>
+      <c r="ADH2" s="0"/>
+      <c r="ADI2" s="0"/>
+      <c r="ADJ2" s="0"/>
+      <c r="ADK2" s="0"/>
+      <c r="ADL2" s="0"/>
+      <c r="ADM2" s="0"/>
+      <c r="ADN2" s="0"/>
+      <c r="ADO2" s="0"/>
+      <c r="ADP2" s="0"/>
+      <c r="ADQ2" s="0"/>
+      <c r="ADR2" s="0"/>
+      <c r="ADS2" s="0"/>
+      <c r="ADT2" s="0"/>
+      <c r="ADU2" s="0"/>
+      <c r="ADV2" s="0"/>
+      <c r="ADW2" s="0"/>
+      <c r="ADX2" s="0"/>
+      <c r="ADY2" s="0"/>
+      <c r="ADZ2" s="0"/>
+      <c r="AEA2" s="0"/>
+      <c r="AEB2" s="0"/>
+      <c r="AEC2" s="0"/>
+      <c r="AED2" s="0"/>
+      <c r="AEE2" s="0"/>
+      <c r="AEF2" s="0"/>
+      <c r="AEG2" s="0"/>
+      <c r="AEH2" s="0"/>
+      <c r="AEI2" s="0"/>
+      <c r="AEJ2" s="0"/>
+      <c r="AEK2" s="0"/>
+      <c r="AEL2" s="0"/>
+      <c r="AEM2" s="0"/>
+      <c r="AEN2" s="0"/>
+      <c r="AEO2" s="0"/>
+      <c r="AEP2" s="0"/>
+      <c r="AEQ2" s="0"/>
+      <c r="AER2" s="0"/>
+      <c r="AES2" s="0"/>
+      <c r="AET2" s="0"/>
+      <c r="AEU2" s="0"/>
+      <c r="AEV2" s="0"/>
+      <c r="AEW2" s="0"/>
+      <c r="AEX2" s="0"/>
+      <c r="AEY2" s="0"/>
+      <c r="AEZ2" s="0"/>
+      <c r="AFA2" s="0"/>
+      <c r="AFB2" s="0"/>
+      <c r="AFC2" s="0"/>
+      <c r="AFD2" s="0"/>
+      <c r="AFE2" s="0"/>
+      <c r="AFF2" s="0"/>
+      <c r="AFG2" s="0"/>
+      <c r="AFH2" s="0"/>
+      <c r="AFI2" s="0"/>
+      <c r="AFJ2" s="0"/>
+      <c r="AFK2" s="0"/>
+      <c r="AFL2" s="0"/>
+      <c r="AFM2" s="0"/>
+      <c r="AFN2" s="0"/>
+      <c r="AFO2" s="0"/>
+      <c r="AFP2" s="0"/>
+      <c r="AFQ2" s="0"/>
+      <c r="AFR2" s="0"/>
+      <c r="AFS2" s="0"/>
+      <c r="AFT2" s="0"/>
+      <c r="AFU2" s="0"/>
+      <c r="AFV2" s="0"/>
+      <c r="AFW2" s="0"/>
+      <c r="AFX2" s="0"/>
+      <c r="AFY2" s="0"/>
+      <c r="AFZ2" s="0"/>
+      <c r="AGA2" s="0"/>
+      <c r="AGB2" s="0"/>
+      <c r="AGC2" s="0"/>
+      <c r="AGD2" s="0"/>
+      <c r="AGE2" s="0"/>
+      <c r="AGF2" s="0"/>
+      <c r="AGG2" s="0"/>
+      <c r="AGH2" s="0"/>
+      <c r="AGI2" s="0"/>
+      <c r="AGJ2" s="0"/>
+      <c r="AGK2" s="0"/>
+      <c r="AGL2" s="0"/>
+      <c r="AGM2" s="0"/>
+      <c r="AGN2" s="0"/>
+      <c r="AGO2" s="0"/>
+      <c r="AGP2" s="0"/>
+      <c r="AGQ2" s="0"/>
+      <c r="AGR2" s="0"/>
+      <c r="AGS2" s="0"/>
+      <c r="AGT2" s="0"/>
+      <c r="AGU2" s="0"/>
+      <c r="AGV2" s="0"/>
+      <c r="AGW2" s="0"/>
+      <c r="AGX2" s="0"/>
+      <c r="AGY2" s="0"/>
+      <c r="AGZ2" s="0"/>
+      <c r="AHA2" s="0"/>
+      <c r="AHB2" s="0"/>
+      <c r="AHC2" s="0"/>
+      <c r="AHD2" s="0"/>
+      <c r="AHE2" s="0"/>
+      <c r="AHF2" s="0"/>
+      <c r="AHG2" s="0"/>
+      <c r="AHH2" s="0"/>
+      <c r="AHI2" s="0"/>
+      <c r="AHJ2" s="0"/>
+      <c r="AHK2" s="0"/>
+      <c r="AHL2" s="0"/>
+      <c r="AHM2" s="0"/>
+      <c r="AHN2" s="0"/>
+      <c r="AHO2" s="0"/>
+      <c r="AHP2" s="0"/>
+      <c r="AHQ2" s="0"/>
+      <c r="AHR2" s="0"/>
+      <c r="AHS2" s="0"/>
+      <c r="AHT2" s="0"/>
+      <c r="AHU2" s="0"/>
+      <c r="AHV2" s="0"/>
+      <c r="AHW2" s="0"/>
+      <c r="AHX2" s="0"/>
+      <c r="AHY2" s="0"/>
+      <c r="AHZ2" s="0"/>
+      <c r="AIA2" s="0"/>
+      <c r="AIB2" s="0"/>
+      <c r="AIC2" s="0"/>
+      <c r="AID2" s="0"/>
+      <c r="AIE2" s="0"/>
+      <c r="AIF2" s="0"/>
+      <c r="AIG2" s="0"/>
+      <c r="AIH2" s="0"/>
+      <c r="AII2" s="0"/>
+      <c r="AIJ2" s="0"/>
+      <c r="AIK2" s="0"/>
+      <c r="AIL2" s="0"/>
+      <c r="AIM2" s="0"/>
+      <c r="AIN2" s="0"/>
+      <c r="AIO2" s="0"/>
+      <c r="AIP2" s="0"/>
+      <c r="AIQ2" s="0"/>
+      <c r="AIR2" s="0"/>
+      <c r="AIS2" s="0"/>
+      <c r="AIT2" s="0"/>
+      <c r="AIU2" s="0"/>
+      <c r="AIV2" s="0"/>
+      <c r="AIW2" s="0"/>
+      <c r="AIX2" s="0"/>
+      <c r="AIY2" s="0"/>
+      <c r="AIZ2" s="0"/>
+      <c r="AJA2" s="0"/>
+      <c r="AJB2" s="0"/>
+      <c r="AJC2" s="0"/>
+      <c r="AJD2" s="0"/>
+      <c r="AJE2" s="0"/>
+      <c r="AJF2" s="0"/>
+      <c r="AJG2" s="0"/>
+      <c r="AJH2" s="0"/>
+      <c r="AJI2" s="0"/>
+      <c r="AJJ2" s="0"/>
+      <c r="AJK2" s="0"/>
+      <c r="AJL2" s="0"/>
+      <c r="AJM2" s="0"/>
+      <c r="AJN2" s="0"/>
+      <c r="AJO2" s="0"/>
+      <c r="AJP2" s="0"/>
+      <c r="AJQ2" s="0"/>
+      <c r="AJR2" s="0"/>
+      <c r="AJS2" s="0"/>
+      <c r="AJT2" s="0"/>
+      <c r="AJU2" s="0"/>
+      <c r="AJV2" s="0"/>
+      <c r="AJW2" s="0"/>
+      <c r="AJX2" s="0"/>
+      <c r="AJY2" s="0"/>
+      <c r="AJZ2" s="0"/>
+      <c r="AKA2" s="0"/>
+      <c r="AKB2" s="0"/>
+      <c r="AKC2" s="0"/>
+      <c r="AKD2" s="0"/>
+      <c r="AKE2" s="0"/>
+      <c r="AKF2" s="0"/>
+      <c r="AKG2" s="0"/>
+      <c r="AKH2" s="0"/>
+      <c r="AKI2" s="0"/>
+      <c r="AKJ2" s="0"/>
+      <c r="AKK2" s="0"/>
+      <c r="AKL2" s="0"/>
+      <c r="AKM2" s="0"/>
+      <c r="AKN2" s="0"/>
+      <c r="AKO2" s="0"/>
+      <c r="AKP2" s="0"/>
+      <c r="AKQ2" s="0"/>
+      <c r="AKR2" s="0"/>
+      <c r="AKS2" s="0"/>
+      <c r="AKT2" s="0"/>
+      <c r="AKU2" s="0"/>
+      <c r="AKV2" s="0"/>
+      <c r="AKW2" s="0"/>
+      <c r="AKX2" s="0"/>
+      <c r="AKY2" s="0"/>
+      <c r="AKZ2" s="0"/>
+      <c r="ALA2" s="0"/>
+      <c r="ALB2" s="0"/>
+      <c r="ALC2" s="0"/>
+      <c r="ALD2" s="0"/>
+      <c r="ALE2" s="0"/>
+      <c r="ALF2" s="0"/>
+      <c r="ALG2" s="0"/>
+      <c r="ALH2" s="0"/>
+      <c r="ALI2" s="0"/>
+      <c r="ALJ2" s="0"/>
+      <c r="ALK2" s="0"/>
+      <c r="ALL2" s="0"/>
+      <c r="ALM2" s="0"/>
+      <c r="ALN2" s="0"/>
+      <c r="ALO2" s="0"/>
+      <c r="ALP2" s="0"/>
+      <c r="ALQ2" s="0"/>
+      <c r="ALR2" s="0"/>
+      <c r="ALS2" s="0"/>
+      <c r="ALT2" s="0"/>
+      <c r="ALU2" s="0"/>
+      <c r="ALV2" s="0"/>
+      <c r="ALW2" s="0"/>
+      <c r="ALX2" s="0"/>
+      <c r="ALY2" s="0"/>
+      <c r="ALZ2" s="0"/>
+      <c r="AMA2" s="0"/>
+      <c r="AMB2" s="0"/>
+      <c r="AMC2" s="0"/>
+      <c r="AMD2" s="0"/>
+      <c r="AME2" s="0"/>
+      <c r="AMF2" s="0"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8"/>
+      <c r="B3" s="0"/>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
+      <c r="N3" s="0"/>
+      <c r="O3" s="0"/>
+      <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
+      <c r="R3" s="0"/>
+      <c r="S3" s="0"/>
+      <c r="T3" s="0"/>
+      <c r="U3" s="0"/>
+      <c r="V3" s="0"/>
+      <c r="W3" s="0"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0"/>
+      <c r="Z3" s="0"/>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="0"/>
+      <c r="AC3" s="0"/>
+      <c r="AD3" s="0"/>
+      <c r="AE3" s="0"/>
+      <c r="AF3" s="0"/>
+      <c r="AG3" s="0"/>
+      <c r="AH3" s="0"/>
+      <c r="AI3" s="0"/>
+      <c r="AJ3" s="0"/>
+      <c r="AK3" s="0"/>
+      <c r="AL3" s="0"/>
+      <c r="AM3" s="0"/>
+      <c r="AN3" s="0"/>
+      <c r="AO3" s="0"/>
+      <c r="AP3" s="0"/>
+      <c r="AQ3" s="0"/>
+      <c r="AR3" s="0"/>
+      <c r="AS3" s="0"/>
+      <c r="AT3" s="0"/>
+      <c r="AU3" s="0"/>
+      <c r="AV3" s="0"/>
+      <c r="AW3" s="0"/>
+      <c r="AX3" s="0"/>
+      <c r="AY3" s="0"/>
+      <c r="AZ3" s="0"/>
+      <c r="BA3" s="0"/>
+      <c r="BB3" s="0"/>
+      <c r="BC3" s="0"/>
+      <c r="BD3" s="0"/>
+      <c r="BE3" s="0"/>
+      <c r="BF3" s="0"/>
+      <c r="BG3" s="0"/>
+      <c r="BH3" s="0"/>
+      <c r="BI3" s="0"/>
+      <c r="BJ3" s="0"/>
+      <c r="BK3" s="0"/>
+      <c r="BL3" s="0"/>
+      <c r="BM3" s="0"/>
+      <c r="BN3" s="0"/>
+      <c r="BO3" s="0"/>
+      <c r="BP3" s="0"/>
+      <c r="BQ3" s="0"/>
+      <c r="BR3" s="0"/>
+      <c r="BS3" s="0"/>
+      <c r="BT3" s="0"/>
+      <c r="BU3" s="0"/>
+      <c r="BV3" s="0"/>
+      <c r="BW3" s="0"/>
+      <c r="BX3" s="0"/>
+      <c r="BY3" s="0"/>
+      <c r="BZ3" s="0"/>
+      <c r="CA3" s="0"/>
+      <c r="CB3" s="0"/>
+      <c r="CC3" s="0"/>
+      <c r="CD3" s="0"/>
+      <c r="CE3" s="0"/>
+      <c r="CF3" s="0"/>
+      <c r="CG3" s="0"/>
+      <c r="CH3" s="0"/>
+      <c r="CI3" s="0"/>
+      <c r="CJ3" s="0"/>
+      <c r="CK3" s="0"/>
+      <c r="CL3" s="0"/>
+      <c r="CM3" s="0"/>
+      <c r="CN3" s="0"/>
+      <c r="CO3" s="0"/>
+      <c r="CP3" s="0"/>
+      <c r="CQ3" s="0"/>
+      <c r="CR3" s="0"/>
+      <c r="CS3" s="0"/>
+      <c r="CT3" s="0"/>
+      <c r="CU3" s="0"/>
+      <c r="CV3" s="0"/>
+      <c r="CW3" s="0"/>
+      <c r="CX3" s="0"/>
+      <c r="CY3" s="0"/>
+      <c r="CZ3" s="0"/>
+      <c r="DA3" s="0"/>
+      <c r="DB3" s="0"/>
+      <c r="DC3" s="0"/>
+      <c r="DD3" s="0"/>
+      <c r="DE3" s="0"/>
+      <c r="DF3" s="0"/>
+      <c r="DG3" s="0"/>
+      <c r="DH3" s="0"/>
+      <c r="DI3" s="0"/>
+      <c r="DJ3" s="0"/>
+      <c r="DK3" s="0"/>
+      <c r="DL3" s="0"/>
+      <c r="DM3" s="0"/>
+      <c r="DN3" s="0"/>
+      <c r="DO3" s="0"/>
+      <c r="DP3" s="0"/>
+      <c r="DQ3" s="0"/>
+      <c r="DR3" s="0"/>
+      <c r="DS3" s="0"/>
+      <c r="DT3" s="0"/>
+      <c r="DU3" s="0"/>
+      <c r="DV3" s="0"/>
+      <c r="DW3" s="0"/>
+      <c r="DX3" s="0"/>
+      <c r="DY3" s="0"/>
+      <c r="DZ3" s="0"/>
+      <c r="EA3" s="0"/>
+      <c r="EB3" s="0"/>
+      <c r="EC3" s="0"/>
+      <c r="ED3" s="0"/>
+      <c r="EE3" s="0"/>
+      <c r="EF3" s="0"/>
+      <c r="EG3" s="0"/>
+      <c r="EH3" s="0"/>
+      <c r="EI3" s="0"/>
+      <c r="EJ3" s="0"/>
+      <c r="EK3" s="0"/>
+      <c r="EL3" s="0"/>
+      <c r="EM3" s="0"/>
+      <c r="EN3" s="0"/>
+      <c r="EO3" s="0"/>
+      <c r="EP3" s="0"/>
+      <c r="EQ3" s="0"/>
+      <c r="ER3" s="0"/>
+      <c r="ES3" s="0"/>
+      <c r="ET3" s="0"/>
+      <c r="EU3" s="0"/>
+      <c r="EV3" s="0"/>
+      <c r="EW3" s="0"/>
+      <c r="EX3" s="0"/>
+      <c r="EY3" s="0"/>
+      <c r="EZ3" s="0"/>
+      <c r="FA3" s="0"/>
+      <c r="FB3" s="0"/>
+      <c r="FC3" s="0"/>
+      <c r="FD3" s="0"/>
+      <c r="FE3" s="0"/>
+      <c r="FF3" s="0"/>
+      <c r="FG3" s="0"/>
+      <c r="FH3" s="0"/>
+      <c r="FI3" s="0"/>
+      <c r="FJ3" s="0"/>
+      <c r="FK3" s="0"/>
+      <c r="FL3" s="0"/>
+      <c r="FM3" s="0"/>
+      <c r="FN3" s="0"/>
+      <c r="FO3" s="0"/>
+      <c r="FP3" s="0"/>
+      <c r="FQ3" s="0"/>
+      <c r="FR3" s="0"/>
+      <c r="FS3" s="0"/>
+      <c r="FT3" s="0"/>
+      <c r="FU3" s="0"/>
+      <c r="FV3" s="0"/>
+      <c r="FW3" s="0"/>
+      <c r="FX3" s="0"/>
+      <c r="FY3" s="0"/>
+      <c r="FZ3" s="0"/>
+      <c r="GA3" s="0"/>
+      <c r="GB3" s="0"/>
+      <c r="GC3" s="0"/>
+      <c r="GD3" s="0"/>
+      <c r="GE3" s="0"/>
+      <c r="GF3" s="0"/>
+      <c r="GG3" s="0"/>
+      <c r="GH3" s="0"/>
+      <c r="GI3" s="0"/>
+      <c r="GJ3" s="0"/>
+      <c r="GK3" s="0"/>
+      <c r="GL3" s="0"/>
+      <c r="GM3" s="0"/>
+      <c r="GN3" s="0"/>
+      <c r="GO3" s="0"/>
+      <c r="GP3" s="0"/>
+      <c r="GQ3" s="0"/>
+      <c r="GR3" s="0"/>
+      <c r="GS3" s="0"/>
+      <c r="GT3" s="0"/>
+      <c r="GU3" s="0"/>
+      <c r="GV3" s="0"/>
+      <c r="GW3" s="0"/>
+      <c r="GX3" s="0"/>
+      <c r="GY3" s="0"/>
+      <c r="GZ3" s="0"/>
+      <c r="HA3" s="0"/>
+      <c r="HB3" s="0"/>
+      <c r="HC3" s="0"/>
+      <c r="HD3" s="0"/>
+      <c r="HE3" s="0"/>
+      <c r="HF3" s="0"/>
+      <c r="HG3" s="0"/>
+      <c r="HH3" s="0"/>
+      <c r="HI3" s="0"/>
+      <c r="HJ3" s="0"/>
+      <c r="HK3" s="0"/>
+      <c r="HL3" s="0"/>
+      <c r="HM3" s="0"/>
+      <c r="HN3" s="0"/>
+      <c r="HO3" s="0"/>
+      <c r="HP3" s="0"/>
+      <c r="HQ3" s="0"/>
+      <c r="HR3" s="0"/>
+      <c r="HS3" s="0"/>
+      <c r="HT3" s="0"/>
+      <c r="HU3" s="0"/>
+      <c r="HV3" s="0"/>
+      <c r="HW3" s="0"/>
+      <c r="HX3" s="0"/>
+      <c r="HY3" s="0"/>
+      <c r="HZ3" s="0"/>
+      <c r="IA3" s="0"/>
+      <c r="IB3" s="0"/>
+      <c r="IC3" s="0"/>
+      <c r="ID3" s="0"/>
+      <c r="IE3" s="0"/>
+      <c r="IF3" s="0"/>
+      <c r="IG3" s="0"/>
+      <c r="IH3" s="0"/>
+      <c r="II3" s="0"/>
+      <c r="IJ3" s="0"/>
+      <c r="IK3" s="0"/>
+      <c r="IL3" s="0"/>
+      <c r="IM3" s="0"/>
+      <c r="IN3" s="0"/>
+      <c r="IO3" s="0"/>
+      <c r="IP3" s="0"/>
+      <c r="IQ3" s="0"/>
+      <c r="IR3" s="0"/>
+      <c r="IS3" s="0"/>
+      <c r="IT3" s="0"/>
+      <c r="IU3" s="0"/>
+      <c r="IV3" s="0"/>
+      <c r="IW3" s="0"/>
+      <c r="IX3" s="0"/>
+      <c r="IY3" s="0"/>
+      <c r="IZ3" s="0"/>
+      <c r="JA3" s="0"/>
+      <c r="JB3" s="0"/>
+      <c r="JC3" s="0"/>
+      <c r="JD3" s="0"/>
+      <c r="JE3" s="0"/>
+      <c r="JF3" s="0"/>
+      <c r="JG3" s="0"/>
+      <c r="JH3" s="0"/>
+      <c r="JI3" s="0"/>
+      <c r="JJ3" s="0"/>
+      <c r="JK3" s="0"/>
+      <c r="JL3" s="0"/>
+      <c r="JM3" s="0"/>
+      <c r="JN3" s="0"/>
+      <c r="JO3" s="0"/>
+      <c r="JP3" s="0"/>
+      <c r="JQ3" s="0"/>
+      <c r="JR3" s="0"/>
+      <c r="JS3" s="0"/>
+      <c r="JT3" s="0"/>
+      <c r="JU3" s="0"/>
+      <c r="JV3" s="0"/>
+      <c r="JW3" s="0"/>
+      <c r="JX3" s="0"/>
+      <c r="JY3" s="0"/>
+      <c r="JZ3" s="0"/>
+      <c r="KA3" s="0"/>
+      <c r="KB3" s="0"/>
+      <c r="KC3" s="0"/>
+      <c r="KD3" s="0"/>
+      <c r="KE3" s="0"/>
+      <c r="KF3" s="0"/>
+      <c r="KG3" s="0"/>
+      <c r="KH3" s="0"/>
+      <c r="KI3" s="0"/>
+      <c r="KJ3" s="0"/>
+      <c r="KK3" s="0"/>
+      <c r="KL3" s="0"/>
+      <c r="KM3" s="0"/>
+      <c r="KN3" s="0"/>
+      <c r="KO3" s="0"/>
+      <c r="KP3" s="0"/>
+      <c r="KQ3" s="0"/>
+      <c r="KR3" s="0"/>
+      <c r="KS3" s="0"/>
+      <c r="KT3" s="0"/>
+      <c r="KU3" s="0"/>
+      <c r="KV3" s="0"/>
+      <c r="KW3" s="0"/>
+      <c r="KX3" s="0"/>
+      <c r="KY3" s="0"/>
+      <c r="KZ3" s="0"/>
+      <c r="LA3" s="0"/>
+      <c r="LB3" s="0"/>
+      <c r="LC3" s="0"/>
+      <c r="LD3" s="0"/>
+      <c r="LE3" s="0"/>
+      <c r="LF3" s="0"/>
+      <c r="LG3" s="0"/>
+      <c r="LH3" s="0"/>
+      <c r="LI3" s="0"/>
+      <c r="LJ3" s="0"/>
+      <c r="LK3" s="0"/>
+      <c r="LL3" s="0"/>
+      <c r="LM3" s="0"/>
+      <c r="LN3" s="0"/>
+      <c r="LO3" s="0"/>
+      <c r="LP3" s="0"/>
+      <c r="LQ3" s="0"/>
+      <c r="LR3" s="0"/>
+      <c r="LS3" s="0"/>
+      <c r="LT3" s="0"/>
+      <c r="LU3" s="0"/>
+      <c r="LV3" s="0"/>
+      <c r="LW3" s="0"/>
+      <c r="LX3" s="0"/>
+      <c r="LY3" s="0"/>
+      <c r="LZ3" s="0"/>
+      <c r="MA3" s="0"/>
+      <c r="MB3" s="0"/>
+      <c r="MC3" s="0"/>
+      <c r="MD3" s="0"/>
+      <c r="ME3" s="0"/>
+      <c r="MF3" s="0"/>
+      <c r="MG3" s="0"/>
+      <c r="MH3" s="0"/>
+      <c r="MI3" s="0"/>
+      <c r="MJ3" s="0"/>
+      <c r="MK3" s="0"/>
+      <c r="ML3" s="0"/>
+      <c r="MM3" s="0"/>
+      <c r="MN3" s="0"/>
+      <c r="MO3" s="0"/>
+      <c r="MP3" s="0"/>
+      <c r="MQ3" s="0"/>
+      <c r="MR3" s="0"/>
+      <c r="MS3" s="0"/>
+      <c r="MT3" s="0"/>
+      <c r="MU3" s="0"/>
+      <c r="MV3" s="0"/>
+      <c r="MW3" s="0"/>
+      <c r="MX3" s="0"/>
+      <c r="MY3" s="0"/>
+      <c r="MZ3" s="0"/>
+      <c r="NA3" s="0"/>
+      <c r="NB3" s="0"/>
+      <c r="NC3" s="0"/>
+      <c r="ND3" s="0"/>
+      <c r="NE3" s="0"/>
+      <c r="NF3" s="0"/>
+      <c r="NG3" s="0"/>
+      <c r="NH3" s="0"/>
+      <c r="NI3" s="0"/>
+      <c r="NJ3" s="0"/>
+      <c r="NK3" s="0"/>
+      <c r="NL3" s="0"/>
+      <c r="NM3" s="0"/>
+      <c r="NN3" s="0"/>
+      <c r="NO3" s="0"/>
+      <c r="NP3" s="0"/>
+      <c r="NQ3" s="0"/>
+      <c r="NR3" s="0"/>
+      <c r="NS3" s="0"/>
+      <c r="NT3" s="0"/>
+      <c r="NU3" s="0"/>
+      <c r="NV3" s="0"/>
+      <c r="NW3" s="0"/>
+      <c r="NX3" s="0"/>
+      <c r="NY3" s="0"/>
+      <c r="NZ3" s="0"/>
+      <c r="OA3" s="0"/>
+      <c r="OB3" s="0"/>
+      <c r="OC3" s="0"/>
+      <c r="OD3" s="0"/>
+      <c r="OE3" s="0"/>
+      <c r="OF3" s="0"/>
+      <c r="OG3" s="0"/>
+      <c r="OH3" s="0"/>
+      <c r="OI3" s="0"/>
+      <c r="OJ3" s="0"/>
+      <c r="OK3" s="0"/>
+      <c r="OL3" s="0"/>
+      <c r="OM3" s="0"/>
+      <c r="ON3" s="0"/>
+      <c r="OO3" s="0"/>
+      <c r="OP3" s="0"/>
+      <c r="OQ3" s="0"/>
+      <c r="OR3" s="0"/>
+      <c r="OS3" s="0"/>
+      <c r="OT3" s="0"/>
+      <c r="OU3" s="0"/>
+      <c r="OV3" s="0"/>
+      <c r="OW3" s="0"/>
+      <c r="OX3" s="0"/>
+      <c r="OY3" s="0"/>
+      <c r="OZ3" s="0"/>
+      <c r="PA3" s="0"/>
+      <c r="PB3" s="0"/>
+      <c r="PC3" s="0"/>
+      <c r="PD3" s="0"/>
+      <c r="PE3" s="0"/>
+      <c r="PF3" s="0"/>
+      <c r="PG3" s="0"/>
+      <c r="PH3" s="0"/>
+      <c r="PI3" s="0"/>
+      <c r="PJ3" s="0"/>
+      <c r="PK3" s="0"/>
+      <c r="PL3" s="0"/>
+      <c r="PM3" s="0"/>
+      <c r="PN3" s="0"/>
+      <c r="PO3" s="0"/>
+      <c r="PP3" s="0"/>
+      <c r="PQ3" s="0"/>
+      <c r="PR3" s="0"/>
+      <c r="PS3" s="0"/>
+      <c r="PT3" s="0"/>
+      <c r="PU3" s="0"/>
+      <c r="PV3" s="0"/>
+      <c r="PW3" s="0"/>
+      <c r="PX3" s="0"/>
+      <c r="PY3" s="0"/>
+      <c r="PZ3" s="0"/>
+      <c r="QA3" s="0"/>
+      <c r="QB3" s="0"/>
+      <c r="QC3" s="0"/>
+      <c r="QD3" s="0"/>
+      <c r="QE3" s="0"/>
+      <c r="QF3" s="0"/>
+      <c r="QG3" s="0"/>
+      <c r="QH3" s="0"/>
+      <c r="QI3" s="0"/>
+      <c r="QJ3" s="0"/>
+      <c r="QK3" s="0"/>
+      <c r="QL3" s="0"/>
+      <c r="QM3" s="0"/>
+      <c r="QN3" s="0"/>
+      <c r="QO3" s="0"/>
+      <c r="QP3" s="0"/>
+      <c r="QQ3" s="0"/>
+      <c r="QR3" s="0"/>
+      <c r="QS3" s="0"/>
+      <c r="QT3" s="0"/>
+      <c r="QU3" s="0"/>
+      <c r="QV3" s="0"/>
+      <c r="QW3" s="0"/>
+      <c r="QX3" s="0"/>
+      <c r="QY3" s="0"/>
+      <c r="QZ3" s="0"/>
+      <c r="RA3" s="0"/>
+      <c r="RB3" s="0"/>
+      <c r="RC3" s="0"/>
+      <c r="RD3" s="0"/>
+      <c r="RE3" s="0"/>
+      <c r="RF3" s="0"/>
+      <c r="RG3" s="0"/>
+      <c r="RH3" s="0"/>
+      <c r="RI3" s="0"/>
+      <c r="RJ3" s="0"/>
+      <c r="RK3" s="0"/>
+      <c r="RL3" s="0"/>
+      <c r="RM3" s="0"/>
+      <c r="RN3" s="0"/>
+      <c r="RO3" s="0"/>
+      <c r="RP3" s="0"/>
+      <c r="RQ3" s="0"/>
+      <c r="RR3" s="0"/>
+      <c r="RS3" s="0"/>
+      <c r="RT3" s="0"/>
+      <c r="RU3" s="0"/>
+      <c r="RV3" s="0"/>
+      <c r="RW3" s="0"/>
+      <c r="RX3" s="0"/>
+      <c r="RY3" s="0"/>
+      <c r="RZ3" s="0"/>
+      <c r="SA3" s="0"/>
+      <c r="SB3" s="0"/>
+      <c r="SC3" s="0"/>
+      <c r="SD3" s="0"/>
+      <c r="SE3" s="0"/>
+      <c r="SF3" s="0"/>
+      <c r="SG3" s="0"/>
+      <c r="SH3" s="0"/>
+      <c r="SI3" s="0"/>
+      <c r="SJ3" s="0"/>
+      <c r="SK3" s="0"/>
+      <c r="SL3" s="0"/>
+      <c r="SM3" s="0"/>
+      <c r="SN3" s="0"/>
+      <c r="SO3" s="0"/>
+      <c r="SP3" s="0"/>
+      <c r="SQ3" s="0"/>
+      <c r="SR3" s="0"/>
+      <c r="SS3" s="0"/>
+      <c r="ST3" s="0"/>
+      <c r="SU3" s="0"/>
+      <c r="SV3" s="0"/>
+      <c r="SW3" s="0"/>
+      <c r="SX3" s="0"/>
+      <c r="SY3" s="0"/>
+      <c r="SZ3" s="0"/>
+      <c r="TA3" s="0"/>
+      <c r="TB3" s="0"/>
+      <c r="TC3" s="0"/>
+      <c r="TD3" s="0"/>
+      <c r="TE3" s="0"/>
+      <c r="TF3" s="0"/>
+      <c r="TG3" s="0"/>
+      <c r="TH3" s="0"/>
+      <c r="TI3" s="0"/>
+      <c r="TJ3" s="0"/>
+      <c r="TK3" s="0"/>
+      <c r="TL3" s="0"/>
+      <c r="TM3" s="0"/>
+      <c r="TN3" s="0"/>
+      <c r="TO3" s="0"/>
+      <c r="TP3" s="0"/>
+      <c r="TQ3" s="0"/>
+      <c r="TR3" s="0"/>
+      <c r="TS3" s="0"/>
+      <c r="TT3" s="0"/>
+      <c r="TU3" s="0"/>
+      <c r="TV3" s="0"/>
+      <c r="TW3" s="0"/>
+      <c r="TX3" s="0"/>
+      <c r="TY3" s="0"/>
+      <c r="TZ3" s="0"/>
+      <c r="UA3" s="0"/>
+      <c r="UB3" s="0"/>
+      <c r="UC3" s="0"/>
+      <c r="UD3" s="0"/>
+      <c r="UE3" s="0"/>
+      <c r="UF3" s="0"/>
+      <c r="UG3" s="0"/>
+      <c r="UH3" s="0"/>
+      <c r="UI3" s="0"/>
+      <c r="UJ3" s="0"/>
+      <c r="UK3" s="0"/>
+      <c r="UL3" s="0"/>
+      <c r="UM3" s="0"/>
+      <c r="UN3" s="0"/>
+      <c r="UO3" s="0"/>
+      <c r="UP3" s="0"/>
+      <c r="UQ3" s="0"/>
+      <c r="UR3" s="0"/>
+      <c r="US3" s="0"/>
+      <c r="UT3" s="0"/>
+      <c r="UU3" s="0"/>
+      <c r="UV3" s="0"/>
+      <c r="UW3" s="0"/>
+      <c r="UX3" s="0"/>
+      <c r="UY3" s="0"/>
+      <c r="UZ3" s="0"/>
+      <c r="VA3" s="0"/>
+      <c r="VB3" s="0"/>
+      <c r="VC3" s="0"/>
+      <c r="VD3" s="0"/>
+      <c r="VE3" s="0"/>
+      <c r="VF3" s="0"/>
+      <c r="VG3" s="0"/>
+      <c r="VH3" s="0"/>
+      <c r="VI3" s="0"/>
+      <c r="VJ3" s="0"/>
+      <c r="VK3" s="0"/>
+      <c r="VL3" s="0"/>
+      <c r="VM3" s="0"/>
+      <c r="VN3" s="0"/>
+      <c r="VO3" s="0"/>
+      <c r="VP3" s="0"/>
+      <c r="VQ3" s="0"/>
+      <c r="VR3" s="0"/>
+      <c r="VS3" s="0"/>
+      <c r="VT3" s="0"/>
+      <c r="VU3" s="0"/>
+      <c r="VV3" s="0"/>
+      <c r="VW3" s="0"/>
+      <c r="VX3" s="0"/>
+      <c r="VY3" s="0"/>
+      <c r="VZ3" s="0"/>
+      <c r="WA3" s="0"/>
+      <c r="WB3" s="0"/>
+      <c r="WC3" s="0"/>
+      <c r="WD3" s="0"/>
+      <c r="WE3" s="0"/>
+      <c r="WF3" s="0"/>
+      <c r="WG3" s="0"/>
+      <c r="WH3" s="0"/>
+      <c r="WI3" s="0"/>
+      <c r="WJ3" s="0"/>
+      <c r="WK3" s="0"/>
+      <c r="WL3" s="0"/>
+      <c r="WM3" s="0"/>
+      <c r="WN3" s="0"/>
+      <c r="WO3" s="0"/>
+      <c r="WP3" s="0"/>
+      <c r="WQ3" s="0"/>
+      <c r="WR3" s="0"/>
+      <c r="WS3" s="0"/>
+      <c r="WT3" s="0"/>
+      <c r="WU3" s="0"/>
+      <c r="WV3" s="0"/>
+      <c r="WW3" s="0"/>
+      <c r="WX3" s="0"/>
+      <c r="WY3" s="0"/>
+      <c r="WZ3" s="0"/>
+      <c r="XA3" s="0"/>
+      <c r="XB3" s="0"/>
+      <c r="XC3" s="0"/>
+      <c r="XD3" s="0"/>
+      <c r="XE3" s="0"/>
+      <c r="XF3" s="0"/>
+      <c r="XG3" s="0"/>
+      <c r="XH3" s="0"/>
+      <c r="XI3" s="0"/>
+      <c r="XJ3" s="0"/>
+      <c r="XK3" s="0"/>
+      <c r="XL3" s="0"/>
+      <c r="XM3" s="0"/>
+      <c r="XN3" s="0"/>
+      <c r="XO3" s="0"/>
+      <c r="XP3" s="0"/>
+      <c r="XQ3" s="0"/>
+      <c r="XR3" s="0"/>
+      <c r="XS3" s="0"/>
+      <c r="XT3" s="0"/>
+      <c r="XU3" s="0"/>
+      <c r="XV3" s="0"/>
+      <c r="XW3" s="0"/>
+      <c r="XX3" s="0"/>
+      <c r="XY3" s="0"/>
+      <c r="XZ3" s="0"/>
+      <c r="YA3" s="0"/>
+      <c r="YB3" s="0"/>
+      <c r="YC3" s="0"/>
+      <c r="YD3" s="0"/>
+      <c r="YE3" s="0"/>
+      <c r="YF3" s="0"/>
+      <c r="YG3" s="0"/>
+      <c r="YH3" s="0"/>
+      <c r="YI3" s="0"/>
+      <c r="YJ3" s="0"/>
+      <c r="YK3" s="0"/>
+      <c r="YL3" s="0"/>
+      <c r="YM3" s="0"/>
+      <c r="YN3" s="0"/>
+      <c r="YO3" s="0"/>
+      <c r="YP3" s="0"/>
+      <c r="YQ3" s="0"/>
+      <c r="YR3" s="0"/>
+      <c r="YS3" s="0"/>
+      <c r="YT3" s="0"/>
+      <c r="YU3" s="0"/>
+      <c r="YV3" s="0"/>
+      <c r="YW3" s="0"/>
+      <c r="YX3" s="0"/>
+      <c r="YY3" s="0"/>
+      <c r="YZ3" s="0"/>
+      <c r="ZA3" s="0"/>
+      <c r="ZB3" s="0"/>
+      <c r="ZC3" s="0"/>
+      <c r="ZD3" s="0"/>
+      <c r="ZE3" s="0"/>
+      <c r="ZF3" s="0"/>
+      <c r="ZG3" s="0"/>
+      <c r="ZH3" s="0"/>
+      <c r="ZI3" s="0"/>
+      <c r="ZJ3" s="0"/>
+      <c r="ZK3" s="0"/>
+      <c r="ZL3" s="0"/>
+      <c r="ZM3" s="0"/>
+      <c r="ZN3" s="0"/>
+      <c r="ZO3" s="0"/>
+      <c r="ZP3" s="0"/>
+      <c r="ZQ3" s="0"/>
+      <c r="ZR3" s="0"/>
+      <c r="ZS3" s="0"/>
+      <c r="ZT3" s="0"/>
+      <c r="ZU3" s="0"/>
+      <c r="ZV3" s="0"/>
+      <c r="ZW3" s="0"/>
+      <c r="ZX3" s="0"/>
+      <c r="ZY3" s="0"/>
+      <c r="ZZ3" s="0"/>
+      <c r="AAA3" s="0"/>
+      <c r="AAB3" s="0"/>
+      <c r="AAC3" s="0"/>
+      <c r="AAD3" s="0"/>
+      <c r="AAE3" s="0"/>
+      <c r="AAF3" s="0"/>
+      <c r="AAG3" s="0"/>
+      <c r="AAH3" s="0"/>
+      <c r="AAI3" s="0"/>
+      <c r="AAJ3" s="0"/>
+      <c r="AAK3" s="0"/>
+      <c r="AAL3" s="0"/>
+      <c r="AAM3" s="0"/>
+      <c r="AAN3" s="0"/>
+      <c r="AAO3" s="0"/>
+      <c r="AAP3" s="0"/>
+      <c r="AAQ3" s="0"/>
+      <c r="AAR3" s="0"/>
+      <c r="AAS3" s="0"/>
+      <c r="AAT3" s="0"/>
+      <c r="AAU3" s="0"/>
+      <c r="AAV3" s="0"/>
+      <c r="AAW3" s="0"/>
+      <c r="AAX3" s="0"/>
+      <c r="AAY3" s="0"/>
+      <c r="AAZ3" s="0"/>
+      <c r="ABA3" s="0"/>
+      <c r="ABB3" s="0"/>
+      <c r="ABC3" s="0"/>
+      <c r="ABD3" s="0"/>
+      <c r="ABE3" s="0"/>
+      <c r="ABF3" s="0"/>
+      <c r="ABG3" s="0"/>
+      <c r="ABH3" s="0"/>
+      <c r="ABI3" s="0"/>
+      <c r="ABJ3" s="0"/>
+      <c r="ABK3" s="0"/>
+      <c r="ABL3" s="0"/>
+      <c r="ABM3" s="0"/>
+      <c r="ABN3" s="0"/>
+      <c r="ABO3" s="0"/>
+      <c r="ABP3" s="0"/>
+      <c r="ABQ3" s="0"/>
+      <c r="ABR3" s="0"/>
+      <c r="ABS3" s="0"/>
+      <c r="ABT3" s="0"/>
+      <c r="ABU3" s="0"/>
+      <c r="ABV3" s="0"/>
+      <c r="ABW3" s="0"/>
+      <c r="ABX3" s="0"/>
+      <c r="ABY3" s="0"/>
+      <c r="ABZ3" s="0"/>
+      <c r="ACA3" s="0"/>
+      <c r="ACB3" s="0"/>
+      <c r="ACC3" s="0"/>
+      <c r="ACD3" s="0"/>
+      <c r="ACE3" s="0"/>
+      <c r="ACF3" s="0"/>
+      <c r="ACG3" s="0"/>
+      <c r="ACH3" s="0"/>
+      <c r="ACI3" s="0"/>
+      <c r="ACJ3" s="0"/>
+      <c r="ACK3" s="0"/>
+      <c r="ACL3" s="0"/>
+      <c r="ACM3" s="0"/>
+      <c r="ACN3" s="0"/>
+      <c r="ACO3" s="0"/>
+      <c r="ACP3" s="0"/>
+      <c r="ACQ3" s="0"/>
+      <c r="ACR3" s="0"/>
+      <c r="ACS3" s="0"/>
+      <c r="ACT3" s="0"/>
+      <c r="ACU3" s="0"/>
+      <c r="ACV3" s="0"/>
+      <c r="ACW3" s="0"/>
+      <c r="ACX3" s="0"/>
+      <c r="ACY3" s="0"/>
+      <c r="ACZ3" s="0"/>
+      <c r="ADA3" s="0"/>
+      <c r="ADB3" s="0"/>
+      <c r="ADC3" s="0"/>
+      <c r="ADD3" s="0"/>
+      <c r="ADE3" s="0"/>
+      <c r="ADF3" s="0"/>
+      <c r="ADG3" s="0"/>
+      <c r="ADH3" s="0"/>
+      <c r="ADI3" s="0"/>
+      <c r="ADJ3" s="0"/>
+      <c r="ADK3" s="0"/>
+      <c r="ADL3" s="0"/>
+      <c r="ADM3" s="0"/>
+      <c r="ADN3" s="0"/>
+      <c r="ADO3" s="0"/>
+      <c r="ADP3" s="0"/>
+      <c r="ADQ3" s="0"/>
+      <c r="ADR3" s="0"/>
+      <c r="ADS3" s="0"/>
+      <c r="ADT3" s="0"/>
+      <c r="ADU3" s="0"/>
+      <c r="ADV3" s="0"/>
+      <c r="ADW3" s="0"/>
+      <c r="ADX3" s="0"/>
+      <c r="ADY3" s="0"/>
+      <c r="ADZ3" s="0"/>
+      <c r="AEA3" s="0"/>
+      <c r="AEB3" s="0"/>
+      <c r="AEC3" s="0"/>
+      <c r="AED3" s="0"/>
+      <c r="AEE3" s="0"/>
+      <c r="AEF3" s="0"/>
+      <c r="AEG3" s="0"/>
+      <c r="AEH3" s="0"/>
+      <c r="AEI3" s="0"/>
+      <c r="AEJ3" s="0"/>
+      <c r="AEK3" s="0"/>
+      <c r="AEL3" s="0"/>
+      <c r="AEM3" s="0"/>
+      <c r="AEN3" s="0"/>
+      <c r="AEO3" s="0"/>
+      <c r="AEP3" s="0"/>
+      <c r="AEQ3" s="0"/>
+      <c r="AER3" s="0"/>
+      <c r="AES3" s="0"/>
+      <c r="AET3" s="0"/>
+      <c r="AEU3" s="0"/>
+      <c r="AEV3" s="0"/>
+      <c r="AEW3" s="0"/>
+      <c r="AEX3" s="0"/>
+      <c r="AEY3" s="0"/>
+      <c r="AEZ3" s="0"/>
+      <c r="AFA3" s="0"/>
+      <c r="AFB3" s="0"/>
+      <c r="AFC3" s="0"/>
+      <c r="AFD3" s="0"/>
+      <c r="AFE3" s="0"/>
+      <c r="AFF3" s="0"/>
+      <c r="AFG3" s="0"/>
+      <c r="AFH3" s="0"/>
+      <c r="AFI3" s="0"/>
+      <c r="AFJ3" s="0"/>
+      <c r="AFK3" s="0"/>
+      <c r="AFL3" s="0"/>
+      <c r="AFM3" s="0"/>
+      <c r="AFN3" s="0"/>
+      <c r="AFO3" s="0"/>
+      <c r="AFP3" s="0"/>
+      <c r="AFQ3" s="0"/>
+      <c r="AFR3" s="0"/>
+      <c r="AFS3" s="0"/>
+      <c r="AFT3" s="0"/>
+      <c r="AFU3" s="0"/>
+      <c r="AFV3" s="0"/>
+      <c r="AFW3" s="0"/>
+      <c r="AFX3" s="0"/>
+      <c r="AFY3" s="0"/>
+      <c r="AFZ3" s="0"/>
+      <c r="AGA3" s="0"/>
+      <c r="AGB3" s="0"/>
+      <c r="AGC3" s="0"/>
+      <c r="AGD3" s="0"/>
+      <c r="AGE3" s="0"/>
+      <c r="AGF3" s="0"/>
+      <c r="AGG3" s="0"/>
+      <c r="AGH3" s="0"/>
+      <c r="AGI3" s="0"/>
+      <c r="AGJ3" s="0"/>
+      <c r="AGK3" s="0"/>
+      <c r="AGL3" s="0"/>
+      <c r="AGM3" s="0"/>
+      <c r="AGN3" s="0"/>
+      <c r="AGO3" s="0"/>
+      <c r="AGP3" s="0"/>
+      <c r="AGQ3" s="0"/>
+      <c r="AGR3" s="0"/>
+      <c r="AGS3" s="0"/>
+      <c r="AGT3" s="0"/>
+      <c r="AGU3" s="0"/>
+      <c r="AGV3" s="0"/>
+      <c r="AGW3" s="0"/>
+      <c r="AGX3" s="0"/>
+      <c r="AGY3" s="0"/>
+      <c r="AGZ3" s="0"/>
+      <c r="AHA3" s="0"/>
+      <c r="AHB3" s="0"/>
+      <c r="AHC3" s="0"/>
+      <c r="AHD3" s="0"/>
+      <c r="AHE3" s="0"/>
+      <c r="AHF3" s="0"/>
+      <c r="AHG3" s="0"/>
+      <c r="AHH3" s="0"/>
+      <c r="AHI3" s="0"/>
+      <c r="AHJ3" s="0"/>
+      <c r="AHK3" s="0"/>
+      <c r="AHL3" s="0"/>
+      <c r="AHM3" s="0"/>
+      <c r="AHN3" s="0"/>
+      <c r="AHO3" s="0"/>
+      <c r="AHP3" s="0"/>
+      <c r="AHQ3" s="0"/>
+      <c r="AHR3" s="0"/>
+      <c r="AHS3" s="0"/>
+      <c r="AHT3" s="0"/>
+      <c r="AHU3" s="0"/>
+      <c r="AHV3" s="0"/>
+      <c r="AHW3" s="0"/>
+      <c r="AHX3" s="0"/>
+      <c r="AHY3" s="0"/>
+      <c r="AHZ3" s="0"/>
+      <c r="AIA3" s="0"/>
+      <c r="AIB3" s="0"/>
+      <c r="AIC3" s="0"/>
+      <c r="AID3" s="0"/>
+      <c r="AIE3" s="0"/>
+      <c r="AIF3" s="0"/>
+      <c r="AIG3" s="0"/>
+      <c r="AIH3" s="0"/>
+      <c r="AII3" s="0"/>
+      <c r="AIJ3" s="0"/>
+      <c r="AIK3" s="0"/>
+      <c r="AIL3" s="0"/>
+      <c r="AIM3" s="0"/>
+      <c r="AIN3" s="0"/>
+      <c r="AIO3" s="0"/>
+      <c r="AIP3" s="0"/>
+      <c r="AIQ3" s="0"/>
+      <c r="AIR3" s="0"/>
+      <c r="AIS3" s="0"/>
+      <c r="AIT3" s="0"/>
+      <c r="AIU3" s="0"/>
+      <c r="AIV3" s="0"/>
+      <c r="AIW3" s="0"/>
+      <c r="AIX3" s="0"/>
+      <c r="AIY3" s="0"/>
+      <c r="AIZ3" s="0"/>
+      <c r="AJA3" s="0"/>
+      <c r="AJB3" s="0"/>
+      <c r="AJC3" s="0"/>
+      <c r="AJD3" s="0"/>
+      <c r="AJE3" s="0"/>
+      <c r="AJF3" s="0"/>
+      <c r="AJG3" s="0"/>
+      <c r="AJH3" s="0"/>
+      <c r="AJI3" s="0"/>
+      <c r="AJJ3" s="0"/>
+      <c r="AJK3" s="0"/>
+      <c r="AJL3" s="0"/>
+      <c r="AJM3" s="0"/>
+      <c r="AJN3" s="0"/>
+      <c r="AJO3" s="0"/>
+      <c r="AJP3" s="0"/>
+      <c r="AJQ3" s="0"/>
+      <c r="AJR3" s="0"/>
+      <c r="AJS3" s="0"/>
+      <c r="AJT3" s="0"/>
+      <c r="AJU3" s="0"/>
+      <c r="AJV3" s="0"/>
+      <c r="AJW3" s="0"/>
+      <c r="AJX3" s="0"/>
+      <c r="AJY3" s="0"/>
+      <c r="AJZ3" s="0"/>
+      <c r="AKA3" s="0"/>
+      <c r="AKB3" s="0"/>
+      <c r="AKC3" s="0"/>
+      <c r="AKD3" s="0"/>
+      <c r="AKE3" s="0"/>
+      <c r="AKF3" s="0"/>
+      <c r="AKG3" s="0"/>
+      <c r="AKH3" s="0"/>
+      <c r="AKI3" s="0"/>
+      <c r="AKJ3" s="0"/>
+      <c r="AKK3" s="0"/>
+      <c r="AKL3" s="0"/>
+      <c r="AKM3" s="0"/>
+      <c r="AKN3" s="0"/>
+      <c r="AKO3" s="0"/>
+      <c r="AKP3" s="0"/>
+      <c r="AKQ3" s="0"/>
+      <c r="AKR3" s="0"/>
+      <c r="AKS3" s="0"/>
+      <c r="AKT3" s="0"/>
+      <c r="AKU3" s="0"/>
+      <c r="AKV3" s="0"/>
+      <c r="AKW3" s="0"/>
+      <c r="AKX3" s="0"/>
+      <c r="AKY3" s="0"/>
+      <c r="AKZ3" s="0"/>
+      <c r="ALA3" s="0"/>
+      <c r="ALB3" s="0"/>
+      <c r="ALC3" s="0"/>
+      <c r="ALD3" s="0"/>
+      <c r="ALE3" s="0"/>
+      <c r="ALF3" s="0"/>
+      <c r="ALG3" s="0"/>
+      <c r="ALH3" s="0"/>
+      <c r="ALI3" s="0"/>
+      <c r="ALJ3" s="0"/>
+      <c r="ALK3" s="0"/>
+      <c r="ALL3" s="0"/>
+      <c r="ALM3" s="0"/>
+      <c r="ALN3" s="0"/>
+      <c r="ALO3" s="0"/>
+      <c r="ALP3" s="0"/>
+      <c r="ALQ3" s="0"/>
+      <c r="ALR3" s="0"/>
+      <c r="ALS3" s="0"/>
+      <c r="ALT3" s="0"/>
+      <c r="ALU3" s="0"/>
+      <c r="ALV3" s="0"/>
+      <c r="ALW3" s="0"/>
+      <c r="ALX3" s="0"/>
+      <c r="ALY3" s="0"/>
+      <c r="ALZ3" s="0"/>
+      <c r="AMA3" s="0"/>
+      <c r="AMB3" s="0"/>
+      <c r="AMC3" s="0"/>
+      <c r="AMD3" s="0"/>
+      <c r="AME3" s="0"/>
+      <c r="AMF3" s="0"/>
+      <c r="AMG3" s="0"/>
+      <c r="AMH3" s="0"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
@@ -483,6 +2528,8 @@
       <c r="C5" s="15" t="n">
         <v>3</v>
       </c>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="n">
@@ -494,6 +2541,8 @@
       <c r="C6" s="15" t="n">
         <v>2</v>
       </c>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="n">
@@ -505,6 +2554,8 @@
       <c r="C7" s="15" t="n">
         <v>2</v>
       </c>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="n">
@@ -516,6 +2567,8 @@
       <c r="C8" s="15" t="n">
         <v>2</v>
       </c>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="n">
@@ -527,6 +2580,8 @@
       <c r="C9" s="15" t="n">
         <v>2</v>
       </c>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="n">
@@ -538,6 +2593,8 @@
       <c r="C10" s="15" t="n">
         <v>1</v>
       </c>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="n">
@@ -549,6 +2606,8 @@
       <c r="C11" s="15" t="n">
         <v>2</v>
       </c>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="n">
@@ -561,6 +2620,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="16"/>
+      <c r="E12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="n">
@@ -572,6 +2632,8 @@
       <c r="C13" s="15" t="n">
         <v>2.5</v>
       </c>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="n">
@@ -583,6 +2645,8 @@
       <c r="C14" s="15" t="n">
         <v>2</v>
       </c>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="n">
@@ -594,6 +2658,8 @@
       <c r="C15" s="15" t="n">
         <v>8</v>
       </c>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="n">
@@ -605,6 +2671,8 @@
       <c r="C16" s="15" t="n">
         <v>2</v>
       </c>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="n">
@@ -616,6 +2684,8 @@
       <c r="C17" s="15" t="n">
         <v>4</v>
       </c>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="n">
@@ -640,6 +2710,8 @@
       <c r="C19" s="15" t="n">
         <v>6</v>
       </c>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="n">
@@ -651,6 +2723,8 @@
       <c r="C20" s="15" t="n">
         <v>2</v>
       </c>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="n">
@@ -662,6 +2736,8 @@
       <c r="C21" s="15" t="n">
         <v>4</v>
       </c>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="n">
@@ -673,6 +2749,8 @@
       <c r="C22" s="15" t="n">
         <v>3</v>
       </c>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="n">
@@ -684,6 +2762,8 @@
       <c r="C23" s="15" t="n">
         <v>2</v>
       </c>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="n">
@@ -695,6 +2775,8 @@
       <c r="C24" s="15" t="n">
         <v>2.5</v>
       </c>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="n">
@@ -706,6 +2788,8 @@
       <c r="C25" s="15" t="n">
         <v>2</v>
       </c>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="n">
@@ -717,6 +2801,8 @@
       <c r="C26" s="15" t="n">
         <v>2</v>
       </c>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="n">
@@ -728,6 +2814,8 @@
       <c r="C27" s="15" t="n">
         <v>2</v>
       </c>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="n">
@@ -739,6 +2827,8 @@
       <c r="C28" s="15" t="n">
         <v>2</v>
       </c>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13" t="n">
@@ -844,7 +2934,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
